--- a/extrem.xlsx
+++ b/extrem.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasju\Desktop\backup\documentos\2023\Documentos\MDHC\CSG\Atos Extremistas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasju\OdioExtremo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6435" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6435" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Atosv" sheetId="6" r:id="rId5"/>
     <sheet name="Odio" sheetId="8" r:id="rId6"/>
     <sheet name="Odio2022" sheetId="9" r:id="rId7"/>
-    <sheet name="misogeniasafernet" sheetId="10" r:id="rId8"/>
+    <sheet name="misogenia" sheetId="10" r:id="rId8"/>
+    <sheet name="Codebook" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="184">
   <si>
     <t>BR</t>
   </si>
@@ -502,6 +503,87 @@
   </si>
   <si>
     <t>Intolerância Religiossa</t>
+  </si>
+  <si>
+    <t>Variáveis</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Fonte</t>
+  </si>
+  <si>
+    <t>Ano do caso/registro</t>
+  </si>
+  <si>
+    <t>Casos de racismo (número absoluto)</t>
+  </si>
+  <si>
+    <t>Casos de injúria racial (número absoluto)</t>
+  </si>
+  <si>
+    <t>Casos de transfobia (número absoluto)</t>
+  </si>
+  <si>
+    <t>Casos de Lesão Corporal contra LGBTQIA+ (número abosluto)</t>
+  </si>
+  <si>
+    <t>Casos de Homicídio contra LGBTQIA+ (número abosluto)</t>
+  </si>
+  <si>
+    <t>Casos de estupro contra LGBTQIA+ (número abosluto)</t>
+  </si>
+  <si>
+    <t>FBSP</t>
+  </si>
+  <si>
+    <t>Mostros em atos extremistas violentos em escolas</t>
+  </si>
+  <si>
+    <t>Feridos em atos extremistas violentos em escolas</t>
+  </si>
+  <si>
+    <t>Mostros e Feridos em atos extremistas violentos em escolas</t>
+  </si>
+  <si>
+    <t>Arma utilizada para matar ou ferir pessoas em atos extremistas violentos em escolas</t>
+  </si>
+  <si>
+    <t>MEC - Relatório de Ataques a Escolas</t>
+  </si>
+  <si>
+    <t>Odio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crimes de ódio cometidos na internet e denuniados </t>
+  </si>
+  <si>
+    <t>Crimes de ódio cometidos na internet e denuniados por Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crimes de ódio cometidos na internet e denuniados - misogenia </t>
+  </si>
+  <si>
+    <t>SaferNet</t>
+  </si>
+  <si>
+    <t>Caso de injúria racial (taxa por 100 mil habitantes)</t>
+  </si>
+  <si>
+    <t>Casos de racismo (taxa por 100 mil habitantes)</t>
+  </si>
+  <si>
+    <t>Casos de transfobia (taxa por 100 mil habitantes)</t>
+  </si>
+  <si>
+    <t>Estado onde ocorrem os atos extremistas violentos em escolas</t>
+  </si>
+  <si>
+    <t>Municípios onde ocorrem os atos extremistas violentos em escolas</t>
+  </si>
+  <si>
+    <t>Odio2022</t>
   </si>
 </sst>
 </file>
@@ -857,7 +939,7 @@
   <dimension ref="A1:K141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14331,8 +14413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15351,7 +15433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -15416,4 +15498,239 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/extrem.xlsx
+++ b/extrem.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasju\OdioExtremo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasju\Desktop\backup\documentos\2023\Documentos\MDHC\CSG\Atos Extremistas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6435" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6435" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Odio" sheetId="8" r:id="rId6"/>
     <sheet name="Odio2022" sheetId="9" r:id="rId7"/>
     <sheet name="misogenia" sheetId="10" r:id="rId8"/>
-    <sheet name="Codebook" sheetId="11" r:id="rId9"/>
+    <sheet name="Ofensa" sheetId="12" r:id="rId9"/>
+    <sheet name="Codebook" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="199">
   <si>
     <t>BR</t>
   </si>
@@ -556,15 +557,6 @@
     <t>Odio</t>
   </si>
   <si>
-    <t xml:space="preserve">Crimes de ódio cometidos na internet e denuniados </t>
-  </si>
-  <si>
-    <t>Crimes de ódio cometidos na internet e denuniados por Tipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crimes de ódio cometidos na internet e denuniados - misogenia </t>
-  </si>
-  <si>
     <t>SaferNet</t>
   </si>
   <si>
@@ -584,6 +576,60 @@
   </si>
   <si>
     <t>Odio2022</t>
+  </si>
+  <si>
+    <t>PNS</t>
+  </si>
+  <si>
+    <t>pop18+</t>
+  </si>
+  <si>
+    <t>taxa</t>
+  </si>
+  <si>
+    <t>Planilha</t>
+  </si>
+  <si>
+    <t>geral</t>
+  </si>
+  <si>
+    <t>Atosv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ano de ocorrência de crimes de ódio cometidos na internet e denuniados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de ocorrência de crimes de ódio cometidos na internet e denuniados </t>
+  </si>
+  <si>
+    <t>Tipo de crimes de ódio cometidos na internet e denunciados</t>
+  </si>
+  <si>
+    <t>Número de crimes de ódio cometidos na internet e denunciados</t>
+  </si>
+  <si>
+    <t>Ano de ocorrência de casos de misogenia</t>
+  </si>
+  <si>
+    <t>Número de casos de miosgenia ocorridos na Internet e denunciados</t>
+  </si>
+  <si>
+    <t>misogenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de casos de xigamento, ofensas ou exposição indevida na internet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">População estimada acima de 18 anos por estado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado em que ocorrem casos de xigamento, ofensas ou exposição indevida na internet </t>
+  </si>
+  <si>
+    <t>taxa de casos de xingamento, ofensas ou exposição indevida na internet (taxa de 100 mil habitantes)</t>
+  </si>
+  <si>
+    <t>Ofensas</t>
   </si>
 </sst>
 </file>
@@ -639,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -656,6 +702,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5536,6 +5583,399 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO89"/>
@@ -15355,7 +15795,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15502,235 +15942,437 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>890</v>
+      </c>
+      <c r="C2">
+        <v>530252</v>
+      </c>
+      <c r="D2" s="10">
+        <f>B2/C2*100000</f>
+        <v>167.8447228864766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5091</v>
+      </c>
+      <c r="C3">
+        <v>2219314</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:D28" si="0">B3/C3*100000</f>
+        <v>229.39520951068664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>8156</v>
+      </c>
+      <c r="C4">
+        <v>2546445</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" si="0"/>
+        <v>320.28965872029437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1740</v>
+      </c>
+      <c r="C5">
+        <v>519344</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>335.03804799901417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>47687</v>
+      </c>
+      <c r="C6">
+        <v>10436601</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>456.9207925070624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>22844</v>
+      </c>
+      <c r="C7">
+        <v>6400391</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>356.91569468177806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>14468</v>
+      </c>
+      <c r="C8">
+        <v>2168869</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>667.07578927081352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>19733</v>
+      </c>
+      <c r="C9">
+        <v>2881376</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>684.84640671679085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>19176</v>
+      </c>
+      <c r="C10">
+        <v>4973284</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>385.58023229721044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>14248</v>
+      </c>
+      <c r="C11">
+        <v>4548356</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>313.25604240301328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>60186</v>
+      </c>
+      <c r="C12">
+        <v>15617482</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>385.37582434863702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>13849</v>
+      </c>
+      <c r="C13">
+        <v>1933502</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>716.26509825177311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>10929</v>
+      </c>
+      <c r="C14">
+        <v>2397225</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>455.90213684572785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>20235</v>
+      </c>
+      <c r="C15">
+        <v>5532993</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="0"/>
+        <v>365.71526477622507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>10805</v>
+      </c>
+      <c r="C16">
+        <v>2816710</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
+        <v>383.60356586230034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>25966</v>
+      </c>
+      <c r="C17">
+        <v>6627229</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>391.80779779904992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>7207</v>
+      </c>
+      <c r="C18">
+        <v>2239651</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
+        <v>321.79120764797727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>44153</v>
+      </c>
+      <c r="C19">
+        <v>8295002</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="0"/>
+        <v>532.28438040159608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>73256</v>
+      </c>
+      <c r="C20">
+        <v>12816944</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="0"/>
+        <v>571.55590287357109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>183</v>
-      </c>
-      <c r="B21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10108</v>
+      </c>
+      <c r="C21">
+        <v>2484043</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="0"/>
+        <v>406.917271560919</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C22" t="s">
-        <v>177</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>5196</v>
+      </c>
+      <c r="C22">
+        <v>1211076</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="0"/>
+        <v>429.03996115850703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1753</v>
+      </c>
+      <c r="C23">
+        <v>387034</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="0"/>
+        <v>452.93178377093489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>47177</v>
+      </c>
+      <c r="C24">
+        <v>8506198</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="0"/>
+        <v>554.61911420354897</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>16902</v>
+      </c>
+      <c r="C25">
+        <v>5297781</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="0"/>
+        <v>319.03923548368647</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>7422</v>
+      </c>
+      <c r="C26">
+        <v>1584988</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="0"/>
+        <v>468.26852947782572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>207747</v>
+      </c>
+      <c r="C27">
+        <v>33695847</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="0"/>
+        <v>616.53591910006003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>3447</v>
+      </c>
+      <c r="C28">
+        <v>1049587</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" si="0"/>
+        <v>328.41489080943262</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B28">
+    <sortCondition ref="A2:A28"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/extrem.xlsx
+++ b/extrem.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6435" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6435" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="4" r:id="rId1"/>
-    <sheet name="InjRac" sheetId="1" r:id="rId2"/>
-    <sheet name="transf" sheetId="2" r:id="rId3"/>
-    <sheet name="leshom" sheetId="3" r:id="rId4"/>
-    <sheet name="Atosv" sheetId="6" r:id="rId5"/>
-    <sheet name="Odio" sheetId="8" r:id="rId6"/>
-    <sheet name="Odio2022" sheetId="9" r:id="rId7"/>
-    <sheet name="misogenia" sheetId="10" r:id="rId8"/>
-    <sheet name="Ofensa" sheetId="12" r:id="rId9"/>
-    <sheet name="Codebook" sheetId="11" r:id="rId10"/>
+    <sheet name="BullyingAno" sheetId="13" r:id="rId2"/>
+    <sheet name="Bullyinguf" sheetId="14" r:id="rId3"/>
+    <sheet name="InjRac" sheetId="1" r:id="rId4"/>
+    <sheet name="transf" sheetId="2" r:id="rId5"/>
+    <sheet name="leshom" sheetId="3" r:id="rId6"/>
+    <sheet name="Atosv" sheetId="6" r:id="rId7"/>
+    <sheet name="Odio" sheetId="8" r:id="rId8"/>
+    <sheet name="Odio2022" sheetId="9" r:id="rId9"/>
+    <sheet name="misogenia" sheetId="10" r:id="rId10"/>
+    <sheet name="Ofensa" sheetId="12" r:id="rId11"/>
+    <sheet name="Codebook" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="223">
   <si>
     <t>BR</t>
   </si>
@@ -630,13 +632,85 @@
   </si>
   <si>
     <t>Ofensas</t>
+  </si>
+  <si>
+    <t>Masc</t>
+  </si>
+  <si>
+    <t>Fem</t>
+  </si>
+  <si>
+    <t>TdsCrimes</t>
+  </si>
+  <si>
+    <t>Bullying</t>
+  </si>
+  <si>
+    <t>6.692.31</t>
+  </si>
+  <si>
+    <t>Internautas</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>Penetração</t>
+  </si>
+  <si>
+    <t>Taxa100</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>Estado do atendido</t>
+  </si>
+  <si>
+    <t>TdsAtend</t>
+  </si>
+  <si>
+    <t>Todos os atendimentos</t>
+  </si>
+  <si>
+    <t>Atendimentos de casos de ciberbullying</t>
+  </si>
+  <si>
+    <t>População</t>
+  </si>
+  <si>
+    <t>Penetração do acesso à internet</t>
+  </si>
+  <si>
+    <t>número de internautas</t>
+  </si>
+  <si>
+    <t>Taxa de atendimentos de casos de ciberbullying por 100 Mil internautas</t>
+  </si>
+  <si>
+    <t>Bullyinguf</t>
+  </si>
+  <si>
+    <t>Atendimento de pessoas do sexo femininos - ciberbulliying</t>
+  </si>
+  <si>
+    <t>Atendimento de pessoas do  sexo masculino - ciberbulliying</t>
+  </si>
+  <si>
+    <t>Número total de atendimento - ciberbulliying</t>
+  </si>
+  <si>
+    <t>Ano do atendimento de caos de ciberbullying</t>
+  </si>
+  <si>
+    <t>BulluingAno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,6 +738,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -685,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -703,6 +783,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5585,16 +5674,527 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3">
+        <v>16717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4">
+        <v>7112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5">
+        <v>12698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6">
+        <v>8174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2022</v>
+      </c>
+      <c r="B7">
+        <v>28679</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>890</v>
+      </c>
+      <c r="C2">
+        <v>530252</v>
+      </c>
+      <c r="D2" s="10">
+        <f>B2/C2*100000</f>
+        <v>167.8447228864766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5091</v>
+      </c>
+      <c r="C3">
+        <v>2219314</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:D28" si="0">B3/C3*100000</f>
+        <v>229.39520951068664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>8156</v>
+      </c>
+      <c r="C4">
+        <v>2546445</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" si="0"/>
+        <v>320.28965872029437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1740</v>
+      </c>
+      <c r="C5">
+        <v>519344</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>335.03804799901417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>47687</v>
+      </c>
+      <c r="C6">
+        <v>10436601</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>456.9207925070624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>22844</v>
+      </c>
+      <c r="C7">
+        <v>6400391</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>356.91569468177806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>14468</v>
+      </c>
+      <c r="C8">
+        <v>2168869</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>667.07578927081352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>19733</v>
+      </c>
+      <c r="C9">
+        <v>2881376</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>684.84640671679085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>19176</v>
+      </c>
+      <c r="C10">
+        <v>4973284</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>385.58023229721044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>14248</v>
+      </c>
+      <c r="C11">
+        <v>4548356</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>313.25604240301328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>60186</v>
+      </c>
+      <c r="C12">
+        <v>15617482</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>385.37582434863702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>13849</v>
+      </c>
+      <c r="C13">
+        <v>1933502</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>716.26509825177311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>10929</v>
+      </c>
+      <c r="C14">
+        <v>2397225</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>455.90213684572785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>20235</v>
+      </c>
+      <c r="C15">
+        <v>5532993</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="0"/>
+        <v>365.71526477622507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>10805</v>
+      </c>
+      <c r="C16">
+        <v>2816710</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
+        <v>383.60356586230034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>25966</v>
+      </c>
+      <c r="C17">
+        <v>6627229</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>391.80779779904992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>7207</v>
+      </c>
+      <c r="C18">
+        <v>2239651</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
+        <v>321.79120764797727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>44153</v>
+      </c>
+      <c r="C19">
+        <v>8295002</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="0"/>
+        <v>532.28438040159608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>73256</v>
+      </c>
+      <c r="C20">
+        <v>12816944</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="0"/>
+        <v>571.55590287357109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10108</v>
+      </c>
+      <c r="C21">
+        <v>2484043</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="0"/>
+        <v>406.917271560919</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>5196</v>
+      </c>
+      <c r="C22">
+        <v>1211076</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="0"/>
+        <v>429.03996115850703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1753</v>
+      </c>
+      <c r="C23">
+        <v>387034</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="0"/>
+        <v>452.93178377093489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>47177</v>
+      </c>
+      <c r="C24">
+        <v>8506198</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="0"/>
+        <v>554.61911420354897</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>16902</v>
+      </c>
+      <c r="C25">
+        <v>5297781</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="0"/>
+        <v>319.03923548368647</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>7422</v>
+      </c>
+      <c r="C26">
+        <v>1584988</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="0"/>
+        <v>468.26852947782572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>207747</v>
+      </c>
+      <c r="C27">
+        <v>33695847</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="0"/>
+        <v>616.53591910006003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>3447</v>
+      </c>
+      <c r="C28">
+        <v>1049587</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" si="0"/>
+        <v>328.41489080943262</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B28">
+    <sortCondition ref="A2:A28"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>157</v>
       </c>
       <c r="B1" t="s">
@@ -5969,6 +6569,160 @@
       </c>
       <c r="D32" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>221</v>
+      </c>
+      <c r="C44" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5977,6 +6731,908 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2012</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <f>SUM(B2:C2)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2013</v>
+      </c>
+      <c r="B3">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="0">SUM(B3:C3)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2014</v>
+      </c>
+      <c r="B4">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2015</v>
+      </c>
+      <c r="B5">
+        <v>173</v>
+      </c>
+      <c r="C5">
+        <v>92</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2016</v>
+      </c>
+      <c r="B6">
+        <v>202</v>
+      </c>
+      <c r="C6">
+        <v>110</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7">
+        <v>242</v>
+      </c>
+      <c r="C7">
+        <v>117</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8">
+        <v>276</v>
+      </c>
+      <c r="C8">
+        <v>131</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2019</v>
+      </c>
+      <c r="B9">
+        <v>210</v>
+      </c>
+      <c r="C9">
+        <v>131</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2020</v>
+      </c>
+      <c r="B10">
+        <v>161</v>
+      </c>
+      <c r="C10">
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2021</v>
+      </c>
+      <c r="B11">
+        <v>133</v>
+      </c>
+      <c r="C11">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2022</v>
+      </c>
+      <c r="B12">
+        <v>86</v>
+      </c>
+      <c r="C12">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2023</v>
+      </c>
+      <c r="B13">
+        <v>78</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>892748</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F2" s="11">
+        <v>713810</v>
+      </c>
+      <c r="G2" s="10">
+        <f>C2/F2*100000</f>
+        <v>0.28018660427844944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>312</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3" s="11">
+        <v>3351652</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2787670</v>
+      </c>
+      <c r="G3" s="10">
+        <f t="shared" ref="G3:G28" si="0">C3/F3*100000</f>
+        <v>0.78918953821650339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>386</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11">
+        <v>4212899</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F4" s="11">
+        <v>3470260</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.86448853976359119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>72</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>859692</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F5" s="11">
+        <v>685610</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2606</v>
+      </c>
+      <c r="C6">
+        <v>273</v>
+      </c>
+      <c r="D6" s="11">
+        <v>14902276</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="F6" s="11">
+        <v>11541570</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="0"/>
+        <v>2.3653627712694201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>977</v>
+      </c>
+      <c r="C7">
+        <v>68</v>
+      </c>
+      <c r="D7" s="11">
+        <v>9278915</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="F7" s="11">
+        <v>7415050</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.91705382971119553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>581</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8" s="11">
+        <v>3015713</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2843830</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="0"/>
+        <v>1.0197515322645869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>548</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="D9" s="11">
+        <v>3512538</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.879</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3091250</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="0"/>
+        <v>1.4557217953902144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>820</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10" s="11">
+        <v>7970972</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="F10" s="11">
+        <v>6734400</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.59396531242575434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>404</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11" s="11">
+        <v>7107479</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F11" s="11">
+        <v>5539450</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.37909900802426233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>2977</v>
+      </c>
+      <c r="C12">
+        <v>212</v>
+      </c>
+      <c r="D12" s="11">
+        <v>21434328</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="F12" s="11">
+        <v>18099520</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="0"/>
+        <v>1.171301780378706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>309</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3031706</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2662480</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.56338451368648779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>301</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" s="11">
+        <v>3502812</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2960440</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.43912391401278189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>537</v>
+      </c>
+      <c r="C15">
+        <v>29</v>
+      </c>
+      <c r="D15" s="11">
+        <v>8694754</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F15" s="11">
+        <v>7162120</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.40490804398697594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>432</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4030979</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="F16" s="11">
+        <v>3345830</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1084</v>
+      </c>
+      <c r="C17">
+        <v>94</v>
+      </c>
+      <c r="D17" s="11">
+        <v>9854825</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="F17" s="11">
+        <v>8181250</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1489686783804431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>249</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18" s="11">
+        <v>3304910</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F18" s="11">
+        <v>2636080</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.53109162089162698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>1721</v>
+      </c>
+      <c r="C19">
+        <v>127</v>
+      </c>
+      <c r="D19" s="11">
+        <v>11537281</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="F19" s="11">
+        <v>9947830</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="0"/>
+        <v>1.2766603369780143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3579</v>
+      </c>
+      <c r="C20">
+        <v>336</v>
+      </c>
+      <c r="D20" s="11">
+        <v>17262508</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="F20" s="11">
+        <v>15498320</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="0"/>
+        <v>2.1679769162076923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>374</v>
+      </c>
+      <c r="C21">
+        <v>35</v>
+      </c>
+      <c r="D21" s="11">
+        <v>3531165</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="F21" s="11">
+        <v>2935100</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1924636298592892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>176</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1777254</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1463240</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="0"/>
+        <v>0.61507339875891864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11">
+        <v>638162</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F23" s="11">
+        <v>510110</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>1419</v>
+      </c>
+      <c r="C24">
+        <v>125</v>
+      </c>
+      <c r="D24" s="11">
+        <v>11337929</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="F24" s="11">
+        <v>10062530</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="0"/>
+        <v>1.2422323212949427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1095</v>
+      </c>
+      <c r="C25">
+        <v>77</v>
+      </c>
+      <c r="D25" s="11">
+        <v>7395660</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>216</v>
+      </c>
+      <c r="C26">
+        <v>17</v>
+      </c>
+      <c r="D26" s="11">
+        <v>2319575</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1793510</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="0"/>
+        <v>0.94786201359345634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>10347</v>
+      </c>
+      <c r="C27">
+        <v>952</v>
+      </c>
+      <c r="D27" s="11">
+        <v>45919977</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.879</v>
+      </c>
+      <c r="F27" s="11">
+        <v>40331560</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="0"/>
+        <v>2.3604343595933308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>119</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1572458</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1330790</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="0"/>
+        <v>0.60114668730603626</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C28">
+    <sortCondition ref="A2:A28"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO89"/>
   <sheetViews>
@@ -9757,7 +11413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -10691,7 +12347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK65"/>
   <sheetViews>
@@ -14849,7 +16505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
@@ -15719,7 +17375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -15790,7 +17446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -15867,512 +17523,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2017</v>
-      </c>
-      <c r="B2">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2018</v>
-      </c>
-      <c r="B3">
-        <v>16717</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2019</v>
-      </c>
-      <c r="B4">
-        <v>7112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2020</v>
-      </c>
-      <c r="B5">
-        <v>12698</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2021</v>
-      </c>
-      <c r="B6">
-        <v>8174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2022</v>
-      </c>
-      <c r="B7">
-        <v>28679</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>890</v>
-      </c>
-      <c r="C2">
-        <v>530252</v>
-      </c>
-      <c r="D2" s="10">
-        <f>B2/C2*100000</f>
-        <v>167.8447228864766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>5091</v>
-      </c>
-      <c r="C3">
-        <v>2219314</v>
-      </c>
-      <c r="D3" s="10">
-        <f t="shared" ref="D3:D28" si="0">B3/C3*100000</f>
-        <v>229.39520951068664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>8156</v>
-      </c>
-      <c r="C4">
-        <v>2546445</v>
-      </c>
-      <c r="D4" s="10">
-        <f t="shared" si="0"/>
-        <v>320.28965872029437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1740</v>
-      </c>
-      <c r="C5">
-        <v>519344</v>
-      </c>
-      <c r="D5" s="10">
-        <f t="shared" si="0"/>
-        <v>335.03804799901417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>47687</v>
-      </c>
-      <c r="C6">
-        <v>10436601</v>
-      </c>
-      <c r="D6" s="10">
-        <f t="shared" si="0"/>
-        <v>456.9207925070624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>22844</v>
-      </c>
-      <c r="C7">
-        <v>6400391</v>
-      </c>
-      <c r="D7" s="10">
-        <f t="shared" si="0"/>
-        <v>356.91569468177806</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>14468</v>
-      </c>
-      <c r="C8">
-        <v>2168869</v>
-      </c>
-      <c r="D8" s="10">
-        <f t="shared" si="0"/>
-        <v>667.07578927081352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>19733</v>
-      </c>
-      <c r="C9">
-        <v>2881376</v>
-      </c>
-      <c r="D9" s="10">
-        <f t="shared" si="0"/>
-        <v>684.84640671679085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>19176</v>
-      </c>
-      <c r="C10">
-        <v>4973284</v>
-      </c>
-      <c r="D10" s="10">
-        <f t="shared" si="0"/>
-        <v>385.58023229721044</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>14248</v>
-      </c>
-      <c r="C11">
-        <v>4548356</v>
-      </c>
-      <c r="D11" s="10">
-        <f t="shared" si="0"/>
-        <v>313.25604240301328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>60186</v>
-      </c>
-      <c r="C12">
-        <v>15617482</v>
-      </c>
-      <c r="D12" s="10">
-        <f t="shared" si="0"/>
-        <v>385.37582434863702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>13849</v>
-      </c>
-      <c r="C13">
-        <v>1933502</v>
-      </c>
-      <c r="D13" s="10">
-        <f t="shared" si="0"/>
-        <v>716.26509825177311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>10929</v>
-      </c>
-      <c r="C14">
-        <v>2397225</v>
-      </c>
-      <c r="D14" s="10">
-        <f t="shared" si="0"/>
-        <v>455.90213684572785</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>20235</v>
-      </c>
-      <c r="C15">
-        <v>5532993</v>
-      </c>
-      <c r="D15" s="10">
-        <f t="shared" si="0"/>
-        <v>365.71526477622507</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>10805</v>
-      </c>
-      <c r="C16">
-        <v>2816710</v>
-      </c>
-      <c r="D16" s="10">
-        <f t="shared" si="0"/>
-        <v>383.60356586230034</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>25966</v>
-      </c>
-      <c r="C17">
-        <v>6627229</v>
-      </c>
-      <c r="D17" s="10">
-        <f t="shared" si="0"/>
-        <v>391.80779779904992</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>7207</v>
-      </c>
-      <c r="C18">
-        <v>2239651</v>
-      </c>
-      <c r="D18" s="10">
-        <f t="shared" si="0"/>
-        <v>321.79120764797727</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>44153</v>
-      </c>
-      <c r="C19">
-        <v>8295002</v>
-      </c>
-      <c r="D19" s="10">
-        <f t="shared" si="0"/>
-        <v>532.28438040159608</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>73256</v>
-      </c>
-      <c r="C20">
-        <v>12816944</v>
-      </c>
-      <c r="D20" s="10">
-        <f t="shared" si="0"/>
-        <v>571.55590287357109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>10108</v>
-      </c>
-      <c r="C21">
-        <v>2484043</v>
-      </c>
-      <c r="D21" s="10">
-        <f t="shared" si="0"/>
-        <v>406.917271560919</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>5196</v>
-      </c>
-      <c r="C22">
-        <v>1211076</v>
-      </c>
-      <c r="D22" s="10">
-        <f t="shared" si="0"/>
-        <v>429.03996115850703</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>1753</v>
-      </c>
-      <c r="C23">
-        <v>387034</v>
-      </c>
-      <c r="D23" s="10">
-        <f t="shared" si="0"/>
-        <v>452.93178377093489</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>47177</v>
-      </c>
-      <c r="C24">
-        <v>8506198</v>
-      </c>
-      <c r="D24" s="10">
-        <f t="shared" si="0"/>
-        <v>554.61911420354897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>16902</v>
-      </c>
-      <c r="C25">
-        <v>5297781</v>
-      </c>
-      <c r="D25" s="10">
-        <f t="shared" si="0"/>
-        <v>319.03923548368647</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>7422</v>
-      </c>
-      <c r="C26">
-        <v>1584988</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" si="0"/>
-        <v>468.26852947782572</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>207747</v>
-      </c>
-      <c r="C27">
-        <v>33695847</v>
-      </c>
-      <c r="D27" s="10">
-        <f t="shared" si="0"/>
-        <v>616.53591910006003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>3447</v>
-      </c>
-      <c r="C28">
-        <v>1049587</v>
-      </c>
-      <c r="D28" s="10">
-        <f t="shared" si="0"/>
-        <v>328.41489080943262</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:B28">
-    <sortCondition ref="A2:A28"/>
-  </sortState>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>